--- a/assets/favicon/PRESUPUESTO DESARROLLO DE SOFTWAR.xlsx
+++ b/assets/favicon/PRESUPUESTO DESARROLLO DE SOFTWAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUANCHO\Desktop\DESARROLO DE SOFTWARE SENA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Jouya Tour\Jouya-Tour\assets\favicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E62760-762F-44EB-9237-92A3F0138726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A57B1D-DA83-4B8F-BCDF-4A30EDDFD55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EB3771A8-D519-4A41-A294-1802EA5426C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{EB3771A8-D519-4A41-A294-1802EA5426C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimación" sheetId="1" r:id="rId1"/>
@@ -184,8 +184,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0;[Red][$$-240A]\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0;[Red][$$-240A]\ #,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -290,10 +290,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -301,6 +300,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,9 +311,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,471 +628,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE065FE3-626B-4E06-97A4-468C846F7EA9}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B1" sqref="B1:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" cm="1">
-        <f t="array" ref="H4">_xlfn.IFS(B4=1,K$4,C4=1,L$4,D4=1,M$4,E4=1,N$4,F4=1,O$4,G4=1,P$4,COUNTBLANK(B5:G5)&gt;5," ")</f>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(C4=1,L$4,D4=1,M$4,E4=1,N$4,F4=1,O$4,G4=1,P$4,H4=1,Q$4,COUNTBLANK(C5:H5)&gt;5," ")</f>
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="3">
         <v>8</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="3">
         <v>16</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="3">
         <v>24</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="3">
         <v>32</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" cm="1">
-        <f t="array" ref="H5">_xlfn.IFS(B5=1,K$4,C5=1,L$4,D5=1,M$4,E5=1,N$4,F5=1,O$4,G5=1,P$4,COUNTBLANK(B6:G6)&gt;5," ")</f>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(C5=1,L$4,D5=1,M$4,E5=1,N$4,F5=1,O$4,G5=1,P$4,H5=1,Q$4,COUNTBLANK(C6:H6)&gt;5," ")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(B6=1,K$4,C6=1,L$4,D6=1,M$4,E6=1,N$4,F6=1,O$4,G6=1,P$4,COUNTBLANK(B7:G7)&gt;5," ")</f>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(C6=1,L$4,D6=1,M$4,E6=1,N$4,F6=1,O$4,G6=1,P$4,H6=1,Q$4,COUNTBLANK(C7:H7)&gt;5," ")</f>
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(B7=1,K$4,C7=1,L$4,D7=1,M$4,E7=1,N$4,F7=1,O$4,G7=1,P$4,COUNTBLANK(B8:G8)&gt;5," ")</f>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(C7=1,L$4,D7=1,M$4,E7=1,N$4,F7=1,O$4,G7=1,P$4,H7=1,Q$4,COUNTBLANK(C8:H8)&gt;5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="str" cm="1">
-        <f t="array" ref="H8">_xlfn.IFS(B8=1,K$4,C8=1,L$4,D8=1,M$4,E8=1,N$4,F8=1,O$4,G8=1,P$4,COUNTBLANK(B9:G9)&gt;5," ")</f>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(C8=1,L$4,D8=1,M$4,E8=1,N$4,F8=1,O$4,G8=1,P$4,H8=1,Q$4,COUNTBLANK(C9:H9)&gt;5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(B9=1,K$4,C9=1,L$4,D9=1,M$4,E9=1,N$4,F9=1,O$4,G9=1,P$4,COUNTBLANK(B10:G10)&gt;5," ")</f>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="3" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(C9=1,L$4,D9=1,M$4,E9=1,N$4,F9=1,O$4,G9=1,P$4,H9=1,Q$4,COUNTBLANK(C10:H10)&gt;5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="str" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(B10=1,K$4,C10=1,L$4,D10=1,M$4,E10=1,N$4,F10=1,O$4,G10=1,P$4,COUNTBLANK(B11:G11)&gt;5," ")</f>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(C10=1,L$4,D10=1,M$4,E10=1,N$4,F10=1,O$4,G10=1,P$4,H10=1,Q$4,COUNTBLANK(C11:H11)&gt;5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="8">
-        <f>H22</f>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="7">
+        <f>I22</f>
         <v>80</v>
       </c>
-      <c r="K11" s="8">
-        <f>J11/8</f>
+      <c r="L11" s="7">
+        <f>K11/8</f>
         <v>10</v>
       </c>
-      <c r="L11" s="8">
-        <f>K11/4</f>
+      <c r="M11" s="7">
+        <f>L11/4</f>
         <v>2.5</v>
       </c>
-      <c r="M11" s="8">
-        <f>K11/20</f>
+      <c r="N11" s="7">
+        <f>L11/20</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
-        <f>SUM(H4:H11)</f>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <f>SUM(I4:I11)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="11" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="4">
-        <f>K$11/1</f>
+      <c r="L18" s="3">
+        <f>L$11/1</f>
         <v>10</v>
       </c>
-      <c r="L18" s="4">
-        <f>L$11/2</f>
+      <c r="M18" s="3">
+        <f>M$11/2</f>
         <v>1.25</v>
       </c>
-      <c r="M18" s="4">
-        <f>M$11/3</f>
+      <c r="N18" s="3">
+        <f>N$11/3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="N18" s="4">
-        <f>N$11/4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <f>SUM(H14:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="4">
-        <f>L$11/1</f>
-        <v>2.5</v>
-      </c>
-      <c r="L19" s="4">
-        <f>M$11/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="M19" s="4">
-        <f>N$11/3</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="O18" s="3">
         <f>O$11/4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="4">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <f>SUM(I14:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3">
         <f>M$11/1</f>
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M19" s="3">
         <f>N$11/2</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N19" s="3">
         <f>O$11/3</f>
         <v>0</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O19" s="3">
         <f>P$11/4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="3">
+        <f>N$11/1</f>
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="3">
+        <f>O$11/2</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <f>P$11/3</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <f>Q$11/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <f>SUM(H12)</f>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <f>SUM(I12)</f>
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1103,263 +1104,264 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="13" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="16">
         <v>12800</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
-        <f>Estimación!J11</f>
+      <c r="C5" s="3">
+        <f>Estimación!K11</f>
         <v>80</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>C5/2</f>
         <v>40</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>C5/3</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>C5/4</f>
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
-        <f>Estimación!K19</f>
+      <c r="C6" s="3">
+        <f>Estimación!L19</f>
         <v>2.5</v>
       </c>
-      <c r="D6" s="4">
-        <f>Estimación!L19</f>
+      <c r="D6" s="3">
+        <f>Estimación!M19</f>
         <v>0.25</v>
       </c>
-      <c r="E6" s="4">
-        <f>Estimación!M19</f>
+      <c r="E6" s="3">
+        <f>+Estimación!N19</f>
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <f>Estimación!N19</f>
+      <c r="F6" s="3">
+        <f>Estimación!O19</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4">
-        <f>Estimación!K20</f>
+      <c r="C7" s="3">
+        <f>Estimación!L20</f>
         <v>0.5</v>
       </c>
-      <c r="D7" s="4">
-        <f>Estimación!L20</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3">
         <f>Estimación!M20</f>
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
         <f>Estimación!N20</f>
         <v>0</v>
       </c>
+      <c r="F7" s="3">
+        <f>Estimación!O20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <f>C5*I2</f>
         <v>1024000</v>
       </c>
-      <c r="D8" s="15">
-        <f>(D5*I2)*2</f>
-        <v>1024000</v>
-      </c>
-      <c r="E8" s="15">
-        <f>(E5*I2)*3</f>
-        <v>1024000.0000000001</v>
-      </c>
-      <c r="F8" s="15">
-        <f>(F5*I2)*4</f>
-        <v>1024000</v>
+      <c r="D8" s="10">
+        <f>D5*I2</f>
+        <v>512000</v>
+      </c>
+      <c r="E8" s="10">
+        <f>E5*I2</f>
+        <v>341333.33333333337</v>
+      </c>
+      <c r="F8" s="10">
+        <f>F5*I2</f>
+        <v>256000</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <f>(C8*50)/100</f>
         <v>512000</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <f t="shared" ref="D12:F12" si="0">(D8*50)/100</f>
-        <v>512000</v>
-      </c>
-      <c r="E12" s="15">
+        <v>256000</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>512000.00000000006</v>
-      </c>
-      <c r="F12" s="15">
+        <v>170666.66666666669</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>512000</v>
+        <v>128000</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <f>(C8*30)/100</f>
         <v>307200</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <f t="shared" ref="D13:F13" si="1">(D8*30)/100</f>
-        <v>307200</v>
-      </c>
-      <c r="E13" s="15">
+        <v>153600</v>
+      </c>
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>307200.00000000006</v>
-      </c>
-      <c r="F13" s="15">
+        <v>102400.00000000001</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>307200</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <f>(C8*10)/100</f>
         <v>102400</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <f t="shared" ref="D14:F14" si="2">(D8*10)/100</f>
-        <v>102400</v>
-      </c>
-      <c r="E14" s="15">
+        <v>51200</v>
+      </c>
+      <c r="E14" s="10">
         <f t="shared" si="2"/>
-        <v>102400.00000000001</v>
-      </c>
-      <c r="F14" s="15">
+        <v>34133.333333333343</v>
+      </c>
+      <c r="F14" s="10">
         <f t="shared" si="2"/>
-        <v>102400</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <f>(C8*10)/100</f>
         <v>102400</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="10">
         <f t="shared" ref="D15:F15" si="3">(D8*10)/100</f>
-        <v>102400</v>
-      </c>
-      <c r="E15" s="15">
+        <v>51200</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="3"/>
-        <v>102400.00000000001</v>
-      </c>
-      <c r="F15" s="15">
+        <v>34133.333333333343</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="3"/>
-        <v>102400</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <f>SUM(C12:C15)</f>
         <v>1024000</v>
       </c>
-      <c r="D16" s="15">
-        <f t="shared" ref="D16:F16" si="4">SUM(D12:D15)</f>
-        <v>1024000</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:E16" si="4">SUM(D12:D15)</f>
+        <v>512000</v>
+      </c>
+      <c r="E16" s="10">
         <f t="shared" si="4"/>
-        <v>1024000.0000000001</v>
-      </c>
-      <c r="F16" s="15">
+        <v>341333.33333333337</v>
+      </c>
+      <c r="F16" s="10">
         <f>SUM(F12:F15)</f>
-        <v>1024000</v>
+        <v>256000</v>
       </c>
     </row>
   </sheetData>
